--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\SAP-TFI 2015\sap-tfi-documentation\SAP - NEGOCIO\Temporal\Presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Inversion Inicial P2" sheetId="3" r:id="rId3"/>
     <sheet name="Costos Fijos P2" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -343,51 +346,61 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -468,16 +481,44 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -754,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -770,11 +811,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -996,7 +1037,7 @@
       <c r="E9" s="6">
         <v>90000</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>97</v>
       </c>
       <c r="P9" s="3"/>
@@ -1160,7 +1201,7 @@
       <c r="E15" s="25">
         <v>99500</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>98</v>
       </c>
       <c r="G15" s="3"/>
@@ -1191,7 +1232,7 @@
       <c r="E16" s="25">
         <v>1500</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G16" s="3"/>
@@ -1508,7 +1549,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2035,7 +2076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2044,11 +2087,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
@@ -2380,15 +2423,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2501,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\SAP-TFI 2015\sap-tfi-documentation\SAP - NEGOCIO\Temporal\Presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\SAPgit\sap-tfi-documentation\SAP - NEGOCIO\Temporal\Presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inversión inicial P1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="115">
   <si>
     <t>Recursos</t>
   </si>
@@ -325,13 +325,59 @@
   </si>
   <si>
     <t>http://articulo.mercadolibre.com.ar/MLA-578884349-casco-abierto-vertigo-basic-negro-obviamente-en-fas-motos-_JM</t>
+  </si>
+  <si>
+    <t>Ingeniero de Software</t>
+  </si>
+  <si>
+    <t>Neto</t>
+  </si>
+  <si>
+    <t>Desarrollador semiSenior</t>
+  </si>
+  <si>
+    <t>Lider de desarrollo semiSenior</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Fuente: ar.indeed.com</t>
+  </si>
+  <si>
+    <t>Servicio VPN para el sitio web, en la página donweb.com. Precio por año</t>
+  </si>
+  <si>
+    <t>insumo</t>
+  </si>
+  <si>
+    <t>Repositorio</t>
+  </si>
+  <si>
+    <t>Cuenta privada de github</t>
+  </si>
+  <si>
+    <t>Servicio de conexión a Internet, Fibercorp dinámico 10M-1M</t>
+  </si>
+  <si>
+    <t>Ingeniero Logística</t>
+  </si>
+  <si>
+    <t>Lider de logística</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Lider de marketing junior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
     <numFmt numFmtId="164" formatCode="\$#,##0"/>
     <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
   </numFmts>
@@ -417,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -425,12 +471,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -465,9 +526,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -482,8 +540,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1013,7 +1090,7 @@
       <c r="E8" s="6">
         <v>15115</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="4"/>
@@ -1037,7 +1114,7 @@
       <c r="E9" s="6">
         <v>90000</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>97</v>
       </c>
       <c r="P9" s="3"/>
@@ -1059,7 +1136,7 @@
       <c r="E10" s="6">
         <v>3600</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>74</v>
       </c>
       <c r="P10" s="3"/>
@@ -1081,7 +1158,7 @@
       <c r="E11" s="6">
         <v>738</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>75</v>
       </c>
       <c r="I11" s="3"/>
@@ -1104,7 +1181,7 @@
       <c r="C12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="17">
@@ -1170,7 +1247,7 @@
       <c r="E14" s="17">
         <v>750</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="3"/>
@@ -1198,10 +1275,10 @@
       <c r="D15" s="12">
         <v>5</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>99500</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>98</v>
       </c>
       <c r="G15" s="3"/>
@@ -1229,10 +1306,10 @@
       <c r="D16" s="12">
         <v>5</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>1500</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>99</v>
       </c>
       <c r="G16" s="3"/>
@@ -1260,7 +1337,7 @@
       <c r="D17" s="12">
         <v>5</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>1500</v>
       </c>
       <c r="F17" s="12"/>
@@ -1292,7 +1369,7 @@
       <c r="E18" s="17">
         <v>1500</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>89</v>
       </c>
       <c r="G18" s="3"/>
@@ -1323,7 +1400,7 @@
       <c r="E19" s="17">
         <v>5300</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1378,7 +1455,7 @@
       <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>5000</v>
       </c>
       <c r="F21" s="3"/>
@@ -1407,7 +1484,7 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>1000</v>
       </c>
       <c r="F22" s="3"/>
@@ -1436,7 +1513,7 @@
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>5000</v>
       </c>
       <c r="F23" s="3"/>
@@ -1546,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1636,9 @@
     <col min="3" max="3" width="49.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="15" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1578,8 +1657,12 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1607,20 +1690,20 @@
       <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="18">
-        <v>3000</v>
+      <c r="B3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34">
+        <v>10000</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1634,22 +1717,25 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="B4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="32">
+        <v>3</v>
+      </c>
+      <c r="E4" s="34">
+        <f>F4*3</f>
+        <v>18651</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6217</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1661,209 +1747,206 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="B5" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <v>4500</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3500</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34">
+        <v>4500</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>3500</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34">
+        <f>F7+G7</f>
+        <v>17545</v>
+      </c>
+      <c r="F7" s="30">
+        <v>15125</v>
+      </c>
+      <c r="G7" s="12">
+        <f>F7*0.16</f>
+        <v>2420</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35">
+        <f>F8+G8</f>
+        <v>17545</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15125</v>
+      </c>
+      <c r="G8" s="12">
+        <f>F7*0.16</f>
+        <v>2420</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37">
+        <f>F9+H9</f>
+        <v>18425</v>
+      </c>
+      <c r="F9">
+        <v>18425</v>
+      </c>
+      <c r="G9">
+        <f>F9*0.3</f>
+        <v>5527.5</v>
+      </c>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="36">
+        <v>1</v>
+      </c>
+      <c r="E10" s="37">
+        <v>14668</v>
+      </c>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37">
+        <v>12900</v>
+      </c>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17">
-        <v>550</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="17">
-        <v>500</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17">
-        <v>900</v>
+      <c r="C12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1944</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1876,44 +1959,48 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>300</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+    <row r="13" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31">
+        <v>250</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2500</v>
+      <c r="A14" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+      <c r="E14" s="40">
+        <v>2000</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1926,12 +2013,22 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+    <row r="15" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="40">
+        <v>848</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1944,15 +2041,20 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="17">
-        <f>SUM(E3:E14)</f>
-        <v>22250</v>
+      <c r="A16" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="40">
+        <v>500</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1966,11 +2068,21 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="40">
+        <v>900</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1983,11 +2095,17 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38">
+        <v>300</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2000,11 +2118,21 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
+      <c r="E19" s="38">
+        <v>2500</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2017,11 +2145,11 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2034,11 +2162,16 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="40">
+        <f>SUM(E3:E19)</f>
+        <v>127976</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2067,8 +2200,94 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2268,7 +2487,7 @@
       <c r="C12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="17">
@@ -2339,7 +2558,7 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>1000</v>
       </c>
     </row>
@@ -2356,41 +2575,41 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="19">
-        <v>1</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
         <v>35000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
         <v>8790</v>
       </c>
     </row>
@@ -2570,19 +2789,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
         <v>3000</v>
       </c>
     </row>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inversión inicial P1" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,6 +559,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -888,11 +888,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1626,7 +1626,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1690,19 +1690,19 @@
       <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="32">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34">
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
         <v>10000</v>
       </c>
       <c r="F3" s="3"/>
@@ -1717,21 +1717,21 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="32">
-        <v>3</v>
-      </c>
-      <c r="E4" s="34">
-        <f>F4*3</f>
-        <v>18651</v>
+      <c r="D4" s="30">
+        <v>5</v>
+      </c>
+      <c r="E4" s="32">
+        <f>F4*5</f>
+        <v>31085</v>
       </c>
       <c r="F4" s="3">
         <v>6217</v>
@@ -1747,19 +1747,19 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="32">
-        <v>1</v>
-      </c>
-      <c r="E5" s="34">
+      <c r="D5" s="30">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32">
         <v>4500</v>
       </c>
       <c r="F5" s="12"/>
@@ -1776,19 +1776,19 @@
       <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="32">
-        <v>1</v>
-      </c>
-      <c r="E6" s="34">
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
         <v>4500</v>
       </c>
       <c r="F6" s="3"/>
@@ -1805,23 +1805,23 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="32">
-        <v>1</v>
-      </c>
-      <c r="E7" s="34">
+      <c r="D7" s="30">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
         <f>F7+G7</f>
         <v>17545</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="28">
         <v>15125</v>
       </c>
       <c r="G7" s="12">
@@ -1838,19 +1838,19 @@
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="32">
-        <v>1</v>
-      </c>
-      <c r="E8" s="35">
+      <c r="D8" s="30">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33">
         <f>F8+G8</f>
         <v>17545</v>
       </c>
@@ -1871,19 +1871,19 @@
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="36">
-        <v>1</v>
-      </c>
-      <c r="E9" s="37">
+      <c r="D9" s="34">
+        <v>1</v>
+      </c>
+      <c r="E9" s="35">
         <f>F9+H9</f>
         <v>18425</v>
       </c>
@@ -1894,58 +1894,58 @@
         <f>F9*0.3</f>
         <v>5527.5</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="36">
-        <v>1</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="D10" s="34">
+        <v>1</v>
+      </c>
+      <c r="E10" s="35">
         <v>14668</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="36">
-        <v>1</v>
-      </c>
-      <c r="E11" s="37">
+      <c r="D11" s="34">
+        <v>1</v>
+      </c>
+      <c r="E11" s="35">
         <v>12900</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="32">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="D12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="29">
         <v>1944</v>
       </c>
       <c r="F12" s="3"/>
@@ -1960,19 +1960,19 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="32">
-        <v>1</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="D13" s="30">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
         <v>250</v>
       </c>
       <c r="F13" s="12"/>
@@ -1987,19 +1987,19 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="38">
-        <v>1</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="D14" s="36">
+        <v>1</v>
+      </c>
+      <c r="E14" s="38">
         <v>2000</v>
       </c>
       <c r="F14" s="3"/>
@@ -2014,19 +2014,19 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="40">
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38">
         <v>848</v>
       </c>
       <c r="F15" s="3"/>
@@ -2041,19 +2041,19 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>500</v>
       </c>
       <c r="F16" s="3"/>
@@ -2068,19 +2068,19 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="38">
-        <v>1</v>
-      </c>
-      <c r="E17" s="40">
+      <c r="D17" s="36">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38">
         <v>900</v>
       </c>
       <c r="F17" s="3"/>
@@ -2095,15 +2095,15 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38">
+      <c r="C18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36">
         <v>300</v>
       </c>
       <c r="F18" s="3"/>
@@ -2118,20 +2118,20 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="38">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <v>2500</v>
+      <c r="D19" s="36">
+        <v>1</v>
+      </c>
+      <c r="E19" s="36">
+        <v>6000</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2145,11 +2145,11 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2162,15 +2162,15 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="38">
         <f>SUM(E3:E19)</f>
-        <v>127976</v>
+        <v>143910</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2306,11 +2306,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
   <si>
     <t>Recursos</t>
   </si>
@@ -81,9 +81,6 @@
     <t>45000-33600</t>
   </si>
   <si>
-    <t xml:space="preserve"> Programadores para construir el sitio en una primera instancia con las funciones necesarias para inicializar las actividades del negocio. Para cada proyecto varía la cantidad de programadores y los meses que trabajan.</t>
-  </si>
-  <si>
     <t xml:space="preserve">RRHH </t>
   </si>
   <si>
@@ -370,6 +367,39 @@
   </si>
   <si>
     <t>Lider de marketing junior</t>
+  </si>
+  <si>
+    <t>Teléfonos</t>
+  </si>
+  <si>
+    <t>Teléfono Fijo</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Televisor</t>
+  </si>
+  <si>
+    <t>Tv para ingeniero de logística 40'' + soporte para pared</t>
+  </si>
+  <si>
+    <t>Instalación de fibercorp</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>Se aplica 40% de inflación</t>
+  </si>
+  <si>
+    <t>Aguinaldo 122168 + 40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 motos + 40% de inflación </t>
+  </si>
+  <si>
+    <t>5 sueldos + 40%</t>
   </si>
 </sst>
 </file>
@@ -515,9 +545,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -559,6 +586,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -872,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -958,12 +986,12 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
@@ -987,236 +1015,236 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>33600</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6">
+        <v>50400</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+        <v>21600</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="6">
-        <v>15115</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>4600</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6">
-        <v>90000</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>97</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3600</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="A10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="16">
+        <v>100300</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>738</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="18">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="17">
-        <v>8000</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" s="12">
-        <v>2</v>
-      </c>
-      <c r="E13" s="17">
-        <v>1200</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>5400</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1236,19 +1264,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>64</v>
-      </c>
       <c r="D14" s="12">
         <v>1</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>750</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>80</v>
+      <c r="F14" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1264,22 +1292,22 @@
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="12">
         <v>5</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>99500</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>98</v>
+      <c r="F15" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1298,19 +1326,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>1500</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>99</v>
+      <c r="F16" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1329,15 +1357,15 @@
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>1500</v>
       </c>
       <c r="F17" s="12"/>
@@ -1358,19 +1386,19 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>1500</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>89</v>
+      <c r="F18" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1386,21 +1414,21 @@
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="D19" s="12">
         <v>1</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>5300</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1418,15 +1446,15 @@
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="D20" s="12">
         <v>1</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>1190</v>
       </c>
       <c r="F20" s="3"/>
@@ -1444,19 +1472,19 @@
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="E21" s="21">
-        <v>5000</v>
+      <c r="E21" s="20">
+        <v>10000</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1471,21 +1499,21 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="21">
-        <v>1000</v>
+      <c r="E22" s="20">
+        <v>12000</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1502,19 +1530,19 @@
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="21">
-        <v>5000</v>
+      <c r="E23" s="20">
+        <v>5275</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1530,11 +1558,21 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1553,11 +1591,11 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="17">
-        <f>SUM(E4:E23)</f>
-        <v>284293</v>
+        <v>77</v>
+      </c>
+      <c r="E25" s="16">
+        <f>SUM(E4:E24)</f>
+        <v>342853</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1608,10 +1646,10 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F9" r:id="rId2"/>
-    <hyperlink ref="F10" r:id="rId3"/>
-    <hyperlink ref="F11" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
     <hyperlink ref="F14" r:id="rId5"/>
     <hyperlink ref="F16" r:id="rId6"/>
     <hyperlink ref="F18" r:id="rId7"/>
@@ -1623,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1658,10 +1696,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1690,19 +1728,19 @@
       <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="30">
-        <v>1</v>
-      </c>
-      <c r="E3" s="32">
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31">
         <v>10000</v>
       </c>
       <c r="F3" s="3"/>
@@ -1717,19 +1755,19 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="30">
+      <c r="B4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="29">
         <v>5</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <f>F4*5</f>
         <v>31085</v>
       </c>
@@ -1747,25 +1785,25 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="30">
-        <v>1</v>
-      </c>
-      <c r="E5" s="32">
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31">
         <v>4500</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -1776,25 +1814,25 @@
       <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="32">
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
         <v>4500</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1804,24 +1842,24 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="32">
+      <c r="C7" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
         <f>F7+G7</f>
         <v>17545</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>15125</v>
       </c>
       <c r="G7" s="12">
@@ -1837,20 +1875,20 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="C8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
         <f>F8+G8</f>
         <v>17545</v>
       </c>
@@ -1871,19 +1909,19 @@
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="34">
-        <v>1</v>
-      </c>
-      <c r="E9" s="35">
+      <c r="B9" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1</v>
+      </c>
+      <c r="E9" s="34">
         <f>F9+H9</f>
         <v>18425</v>
       </c>
@@ -1894,58 +1932,58 @@
         <f>F9*0.3</f>
         <v>5527.5</v>
       </c>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="D10" s="33">
+        <v>1</v>
+      </c>
+      <c r="E10" s="34">
+        <v>14668</v>
+      </c>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:15" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="34">
-        <v>1</v>
-      </c>
-      <c r="E10" s="35">
-        <v>14668</v>
-      </c>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="C11" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="34">
-        <v>1</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="D11" s="33">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34">
         <v>12900</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="30">
-        <v>1</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="A12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
         <v>1944</v>
       </c>
       <c r="F12" s="3"/>
@@ -1959,20 +1997,20 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="C13" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="30">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29">
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="28">
         <v>250</v>
       </c>
       <c r="F13" s="12"/>
@@ -1987,19 +2025,19 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="C14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="36">
-        <v>1</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="D14" s="35">
+        <v>1</v>
+      </c>
+      <c r="E14" s="37">
         <v>2000</v>
       </c>
       <c r="F14" s="3"/>
@@ -2014,19 +2052,19 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="36">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="A15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
         <v>848</v>
       </c>
       <c r="F15" s="3"/>
@@ -2041,19 +2079,19 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="D16" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="37">
         <v>500</v>
       </c>
       <c r="F16" s="3"/>
@@ -2068,19 +2106,19 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="36">
-        <v>1</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="D17" s="35">
+        <v>1</v>
+      </c>
+      <c r="E17" s="37">
         <v>900</v>
       </c>
       <c r="F17" s="3"/>
@@ -2095,15 +2133,15 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36">
+      <c r="A18" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35">
         <v>300</v>
       </c>
       <c r="F18" s="3"/>
@@ -2118,19 +2156,19 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="36">
-        <v>1</v>
-      </c>
-      <c r="E19" s="36">
+      <c r="D19" s="35">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35">
         <v>6000</v>
       </c>
       <c r="F19" s="3"/>
@@ -2145,11 +2183,19 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="A20" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35">
+        <v>1</v>
+      </c>
+      <c r="E20" s="35">
+        <v>30000</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2162,18 +2208,20 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="38">
-        <f>SUM(E3:E19)</f>
-        <v>143910</v>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="37">
+        <f>SUM(E3:E20)</f>
+        <v>173910</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2190,7 +2238,10 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <f>E21+(E21*0.4)</f>
+        <v>243474</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2224,9 +2275,13 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>122168</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2241,7 +2296,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <f>I24+(I24*0.4)</f>
+        <v>171035.2</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2275,7 +2333,10 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <f>(G22*12)+G25</f>
+        <v>3092723.2</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2284,6 +2345,33 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>128.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f>(E4+(E4*0.35))*12</f>
+        <v>503577</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f>G27+G30+(G32*13)</f>
+        <v>9639352.4499999993</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -2394,13 +2482,13 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -2411,13 +2499,13 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -2428,13 +2516,13 @@
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -2445,13 +2533,13 @@
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2462,13 +2550,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2482,32 +2570,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="16">
         <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="12">
         <v>2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>1200</v>
       </c>
     </row>
@@ -2516,15 +2604,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>64</v>
-      </c>
       <c r="D14" s="12">
         <v>1</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>750</v>
       </c>
     </row>
@@ -2533,83 +2621,83 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="D15" s="12">
         <v>1</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>1190</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
         <v>35000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="18">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
         <v>8790</v>
       </c>
     </row>
@@ -2618,9 +2706,9 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="17">
+        <v>77</v>
+      </c>
+      <c r="E20" s="16">
         <f>SUM(E4:E19)</f>
         <v>125012</v>
       </c>
@@ -2691,15 +2779,15 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>3500</v>
       </c>
     </row>
@@ -2708,10 +2796,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2722,64 +2810,64 @@
     </row>
     <row r="5" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="17">
+        <v>42</v>
+      </c>
+      <c r="E7" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
@@ -2789,19 +2877,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="C9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
         <v>3000</v>
       </c>
     </row>
@@ -2810,9 +2898,9 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="17">
+        <v>52</v>
+      </c>
+      <c r="E10" s="16">
         <f>SUM(E2:E9)</f>
         <v>20550</v>
       </c>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Inversión inicial P1" sheetId="1" r:id="rId1"/>
@@ -407,9 +407,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
-    <numFmt numFmtId="164" formatCode="\$#,##0"/>
-    <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0"/>
+    <numFmt numFmtId="166" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -532,60 +532,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1663,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="28">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="E21" s="37">
         <f>SUM(E3:E20)</f>
-        <v>173910</v>
+        <v>174010</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
@@ -2240,7 +2240,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3">
         <f>E21+(E21*0.4)</f>
-        <v>243474</v>
+        <v>243614</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2335,7 +2335,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3">
         <f>(G22*12)+G25</f>
-        <v>3092723.2</v>
+        <v>3094403.2</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2370,7 +2370,7 @@
     <row r="35" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G35">
         <f>G27+G30+(G32*13)</f>
-        <v>9639352.4499999993</v>
+        <v>9641032.4499999993</v>
       </c>
     </row>
   </sheetData>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -9,13 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inversión inicial P1" sheetId="1" r:id="rId1"/>
     <sheet name="Costos fijos P1" sheetId="2" r:id="rId2"/>
-    <sheet name="Inversion Inicial P2" sheetId="3" r:id="rId3"/>
-    <sheet name="Costos Fijos P2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
   <si>
     <t>Recursos</t>
   </si>
@@ -48,39 +46,18 @@
     <t>RRHH</t>
   </si>
   <si>
-    <t>Mantenimiento del sitio</t>
-  </si>
-  <si>
-    <t>Encargado de mantener el sitio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseñador </t>
-  </si>
-  <si>
     <t>Encargado del diseño de Identidad del negocio: logos, infografías, folletos, posters, etc</t>
   </si>
   <si>
     <t>Materiales</t>
   </si>
   <si>
-    <t>Licencias de Software</t>
-  </si>
-  <si>
-    <t>Licencias respectivas para desarrollo e implementación de la solución informática. Abarca licencias de MySql, Java Enterprise, Etc</t>
-  </si>
-  <si>
     <t>Programador</t>
   </si>
   <si>
     <t>Link Informativo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Programadores para construir el sitio en una primera instancia con las funciones necesarias para inicializar las actividades del negocio. Para este proyecto son 3 programadores por 3 meses.</t>
-  </si>
-  <si>
-    <t>45000-33600</t>
-  </si>
-  <si>
     <t xml:space="preserve">RRHH </t>
   </si>
   <si>
@@ -138,21 +115,12 @@
     <t>Hosting</t>
   </si>
   <si>
-    <t>Servicio de hospedaje del sitio web, en la página GoDaddy.com. Precio por mes por un plan de dos años.</t>
-  </si>
-  <si>
-    <t>$61,49</t>
-  </si>
-  <si>
     <t>http://articulo.mercadolibre.com.ar/MLA-520227758-pc-cpu-completa-amd-sempron-hd500-4gb-kit-tecmousepar-dvd-_JM</t>
   </si>
   <si>
     <t>Conexión ADSL</t>
   </si>
   <si>
-    <t>Servicio de conexión a Internet, Fibertel evolution 30 Mb</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -171,15 +139,9 @@
     <t>Servicios</t>
   </si>
   <si>
-    <t>Publicidad</t>
-  </si>
-  <si>
     <t>Cadete</t>
   </si>
   <si>
-    <t>Incluye publicidad en Radio y TV</t>
-  </si>
-  <si>
     <t>A comisión por pedido</t>
   </si>
   <si>
@@ -237,25 +199,10 @@
     <t>Incluye las inscripciones legales, impuestos y honorarios de contador</t>
   </si>
   <si>
-    <t xml:space="preserve">Servicios </t>
-  </si>
-  <si>
-    <t>Evento</t>
-  </si>
-  <si>
-    <t>Evento de presentación del Sitio a los Negocios. Presupuesto total incluyendo a la encargada de la organización.</t>
-  </si>
-  <si>
     <t>http://articulo.mercadolibre.com.ar/MLA-515757836-impresora-brother-hl-1110-hl-1112-laser-_JM</t>
   </si>
   <si>
     <t>http://articulo.mercadolibre.com.ar/MLA-526845677-router-wi-fi-tp-link-wr841n-300mbps-mimo-wireless-n-5-anos-_JM</t>
-  </si>
-  <si>
-    <t>Publicidades audivisuales</t>
-  </si>
-  <si>
-    <t>Incluye publicidad en la radio y tv locales</t>
   </si>
   <si>
     <t>Total</t>
@@ -411,7 +358,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0"/>
     <numFmt numFmtId="166" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -447,11 +394,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -479,7 +421,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,7 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -519,9 +467,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -534,53 +482,24 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -589,6 +508,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -900,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -916,11 +856,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -972,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -991,10 +931,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1017,13 +957,13 @@
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1046,13 +986,13 @@
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <v>9</v>
@@ -1060,8 +1000,8 @@
       <c r="E6" s="6">
         <v>50400</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>39</v>
+      <c r="F6" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1070,13 +1010,13 @@
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4">
         <v>9</v>
@@ -1084,21 +1024,21 @@
       <c r="E7" s="6">
         <v>21600</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>96</v>
+      <c r="F7" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -1106,21 +1046,21 @@
       <c r="E8" s="6">
         <v>4600</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>73</v>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -1128,8 +1068,8 @@
       <c r="E9" s="6">
         <v>738</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>74</v>
+      <c r="F9" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1142,24 +1082,24 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <v>100300</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="12" t="s">
-        <v>78</v>
+      <c r="G10" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1172,78 +1112,78 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="18">
+    <row r="11" spans="1:17" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="11">
         <v>5</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <v>1000</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
         <v>10000</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="A13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
         <v>5400</v>
       </c>
       <c r="F13" s="3"/>
@@ -1260,23 +1200,23 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>750</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>750</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1291,23 +1231,23 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16">
+        <v>99500</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="12">
-        <v>5</v>
-      </c>
-      <c r="E15" s="23">
-        <v>99500</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>97</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1322,23 +1262,23 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="A16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="8">
         <v>5</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="16">
         <v>1500</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>98</v>
+      <c r="F16" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1353,22 +1293,22 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="A17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="8">
         <v>5</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="16">
         <v>1500</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1382,23 +1322,23 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="A18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="10">
         <v>1500</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>88</v>
+      <c r="F18" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1413,22 +1353,22 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="A19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
         <v>5300</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1442,19 +1382,19 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="A20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
         <v>1190</v>
       </c>
       <c r="F20" s="3"/>
@@ -1472,18 +1412,18 @@
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>92</v>
+        <v>74</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="13">
         <v>10000</v>
       </c>
       <c r="F21" s="3"/>
@@ -1501,18 +1441,18 @@
     </row>
     <row r="22" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="13">
         <v>12000</v>
       </c>
       <c r="F22" s="3"/>
@@ -1530,18 +1470,18 @@
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="13">
         <v>5275</v>
       </c>
       <c r="F23" s="3"/>
@@ -1559,13 +1499,13 @@
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1590,10 +1530,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="10">
         <f>SUM(E4:E24)</f>
         <v>342853</v>
       </c>
@@ -1615,7 +1555,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1663,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1696,10 +1636,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1716,328 +1656,329 @@
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="29">
-        <v>1</v>
-      </c>
-      <c r="E3" s="31">
+      <c r="B3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="24" t="e">
+        <f>C3*G2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3" s="26">
         <v>10000</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="B4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="26">
         <f>F4*5</f>
         <v>31085</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="27">
         <v>6217</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="31">
+      <c r="B5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26">
         <v>4500</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+    </row>
+    <row r="6" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="29">
-        <v>1</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="B6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
         <v>4500</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="31">
+      <c r="B7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
         <f>F7+G7</f>
         <v>17545</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="29">
         <v>15125</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="27">
         <f>F7*0.16</f>
         <v>2420</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="29">
-        <v>1</v>
-      </c>
-      <c r="E8" s="32">
+      <c r="B8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30">
         <f>F8+G8</f>
         <v>17545</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="31">
         <v>15125</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="27">
         <f>F7*0.16</f>
         <v>2420</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" spans="1:15" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="B9" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="33">
         <f>F9+H9</f>
         <v>18425</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="28">
         <v>18425</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="28">
         <f>F9*0.3</f>
         <v>5527.5</v>
       </c>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="33">
-        <v>1</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="B10" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
         <v>14668</v>
       </c>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="33">
-        <v>1</v>
-      </c>
-      <c r="E11" s="34">
+      <c r="B11" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
         <v>12900</v>
       </c>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="35">
         <v>1944</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="28">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+    </row>
+    <row r="13" spans="1:15" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="35">
         <v>350</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="35">
-        <v>1</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="A14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
         <v>2000</v>
       </c>
       <c r="F14" s="3"/>
@@ -2051,47 +1992,47 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="35">
-        <v>1</v>
-      </c>
-      <c r="E15" s="37">
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38">
         <v>848</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="A16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="20">
         <v>500</v>
       </c>
       <c r="F16" s="3"/>
@@ -2105,70 +2046,70 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="35">
-        <v>1</v>
-      </c>
-      <c r="E17" s="37">
+    <row r="17" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="36">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38">
         <v>900</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36">
         <v>300</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="35">
-        <v>1</v>
-      </c>
-      <c r="E19" s="35">
+      <c r="A19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
         <v>6000</v>
       </c>
       <c r="F19" s="3"/>
@@ -2183,17 +2124,17 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35">
-        <v>1</v>
-      </c>
-      <c r="E20" s="35">
+      <c r="A20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
         <v>30000</v>
       </c>
       <c r="F20" s="3"/>
@@ -2208,19 +2149,19 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="37">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="20">
         <f>SUM(E3:E20)</f>
         <v>174010</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2276,7 +2217,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
@@ -2348,7 +2289,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2358,7 +2299,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2377,540 +2318,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="66" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>45000</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>8424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17">
-        <v>8790</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="16">
-        <f>SUM(E4:E19)</f>
-        <v>125012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C22" s="10">
-        <v>43790</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="16">
-        <f>SUM(E2:E9)</f>
-        <v>20550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="10">
-        <v>246600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Inversión inicial P1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>Recursos</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t>5 sueldos + 40%</t>
+  </si>
+  <si>
+    <t>http://www.cdgm.org.ar/tarifario/</t>
+  </si>
+  <si>
+    <t>Ticketera</t>
+  </si>
+  <si>
+    <t>epson-tm-u-220d</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,7 +515,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,6 +537,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -838,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -856,11 +866,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -940,9 +950,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>14620</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="3"/>
@@ -1052,56 +1064,45 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6150</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>738</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="10">
-        <v>100300</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1112,50 +1113,52 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="11">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+        <v>100300</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="10">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1170,54 +1173,52 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="8">
+        <v>100</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="10">
-        <v>5400</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+        <v>10000</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" s="10">
-        <v>750</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>62</v>
-      </c>
+        <v>5400</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1232,22 +1233,22 @@
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D15" s="8">
-        <v>5</v>
-      </c>
-      <c r="E15" s="16">
-        <v>99500</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>750</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1263,22 +1264,22 @@
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8">
         <v>5</v>
       </c>
       <c r="E16" s="16">
-        <v>1500</v>
+        <v>99500</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1297,10 +1298,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="8">
         <v>5</v>
@@ -1308,7 +1309,9 @@
       <c r="E17" s="16">
         <v>1500</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1326,20 +1329,18 @@
         <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="16">
         <v>1500</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1354,21 +1355,23 @@
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="10">
-        <v>5300</v>
-      </c>
-      <c r="F19" s="15"/>
+        <v>1500</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1383,21 +1386,21 @@
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
       <c r="E20" s="10">
-        <v>1190</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>5300</v>
+      </c>
+      <c r="F20" s="15"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1411,20 +1414,20 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>74</v>
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="13">
-        <v>10000</v>
+        <v>53</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1190</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1439,21 +1442,21 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="13">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1468,21 +1471,21 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="13">
-        <v>5275</v>
+        <v>12000</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1502,16 +1505,16 @@
         <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="3">
-        <v>300</v>
+      <c r="E24" s="13">
+        <v>5275</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1527,15 +1530,20 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="10">
-        <f>SUM(E4:E24)</f>
-        <v>342853</v>
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>300</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1554,8 +1562,13 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="10">
+        <f>SUM(E4:E25)</f>
+        <v>358623</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1569,17 +1582,36 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1589,11 +1621,11 @@
     <hyperlink ref="F6" r:id="rId1"/>
     <hyperlink ref="F7" r:id="rId2"/>
     <hyperlink ref="F8" r:id="rId3"/>
-    <hyperlink ref="F9" r:id="rId4"/>
-    <hyperlink ref="F14" r:id="rId5"/>
-    <hyperlink ref="F16" r:id="rId6"/>
-    <hyperlink ref="F18" r:id="rId7"/>
-    <hyperlink ref="F15" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F17" r:id="rId6"/>
+    <hyperlink ref="F19" r:id="rId7"/>
+    <hyperlink ref="F16" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1603,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1667,303 +1699,303 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="24" t="e">
+      <c r="D3" s="23" t="e">
         <f>C3*G2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>10000</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-    </row>
-    <row r="4" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+    </row>
+    <row r="4" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>5</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <f>F4*5</f>
         <v>31085</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>6217</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-    </row>
-    <row r="5" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="24">
-        <v>1</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
         <v>4500</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-    </row>
-    <row r="6" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+    </row>
+    <row r="6" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="24">
-        <v>1</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
         <v>4500</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-    </row>
-    <row r="7" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
         <f>F7+G7</f>
         <v>17545</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>15125</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <f>F7*0.16</f>
         <v>2420</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-    </row>
-    <row r="8" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="30">
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+      <c r="E8" s="29">
         <f>F8+G8</f>
         <v>17545</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>15125</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <f>F7*0.16</f>
         <v>2420</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-    </row>
-    <row r="9" spans="1:15" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="32">
-        <v>1</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
         <f>F9+H9</f>
         <v>18425</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>18425</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <f>F9*0.3</f>
         <v>5527.5</v>
       </c>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:15" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="32">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <v>14668</v>
       </c>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:15" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="32">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
         <v>12900</v>
       </c>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:15" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:15" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="24">
-        <v>1</v>
-      </c>
-      <c r="E12" s="35">
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="34">
         <v>1944</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-    </row>
-    <row r="13" spans="1:15" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+    </row>
+    <row r="13" spans="1:15" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="24">
-        <v>1</v>
-      </c>
-      <c r="E13" s="35">
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="34">
         <v>350</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
@@ -1992,32 +2024,32 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:15" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="36">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="D15" s="35">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
         <v>848</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
@@ -2046,55 +2078,55 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="36">
-        <v>1</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="D17" s="35">
+        <v>1</v>
+      </c>
+      <c r="E17" s="37">
         <v>900</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-    </row>
-    <row r="18" spans="1:15" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36">
+      <c r="C18" s="36"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35">
         <v>300</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\SAPgit\sap-tfi-documentation\SAP - NEGOCIO\Temporal\Presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\SAP-TFI 2015\sap-tfi-documentation\SAP - NEGOCIO\Temporal\Presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -363,9 +363,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0"/>
-    <numFmt numFmtId="166" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -489,23 +489,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
@@ -513,30 +513,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -851,7 +851,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\SAP-TFI 2015\sap-tfi-documentation\SAP - NEGOCIO\Temporal\Presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\SAPgit\sap-tfi-documentation\SAP - NEGOCIO\Temporal\Presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inversión inicial P1" sheetId="1" r:id="rId1"/>
-    <sheet name="Costos fijos P1" sheetId="2" r:id="rId2"/>
+    <sheet name="Inversión Inicial PUM" sheetId="4" r:id="rId2"/>
+    <sheet name="Costos fijos P1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -23,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
   <si>
     <t>Recursos</t>
   </si>
   <si>
-    <t>Presupuesto Delivery</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -356,18 +354,111 @@
   </si>
   <si>
     <t>epson-tm-u-220d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad </t>
+  </si>
+  <si>
+    <t>Activos Fijos</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Costo Unitario</t>
+  </si>
+  <si>
+    <t>Costo Total</t>
+  </si>
+  <si>
+    <t>Computadora</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Led 19''</t>
+  </si>
+  <si>
+    <t>Impresora</t>
+  </si>
+  <si>
+    <t>Epson-tm-u-220d</t>
+  </si>
+  <si>
+    <t>TP Link wifi</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Moto</t>
+  </si>
+  <si>
+    <t>Casco</t>
+  </si>
+  <si>
+    <t>Casco Vertigo</t>
+  </si>
+  <si>
+    <t>Baúl Metálico</t>
+  </si>
+  <si>
+    <t>Uniformes</t>
+  </si>
+  <si>
+    <t>Vestimenta para Cadetes</t>
+  </si>
+  <si>
+    <t>Grupo Electrógeno</t>
+  </si>
+  <si>
+    <t>Grupo Electrogeno Generador Hhy3000fe Hyundai 3.3 Kva 7 Hp</t>
+  </si>
+  <si>
+    <t>Activos Direferidos</t>
+  </si>
+  <si>
+    <t>Capital de Trabajo</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>Instalación fiberCopr</t>
+  </si>
+  <si>
+    <t>Deseñador (Externo)</t>
+  </si>
+  <si>
+    <t>Ploteo</t>
+  </si>
+  <si>
+    <t>Honorarios Legales</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>** Capital adicional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
-    <numFmt numFmtId="164" formatCode="\$#,##0"/>
-    <numFmt numFmtId="165" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0"/>
+    <numFmt numFmtId="166" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="172" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -377,11 +468,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -429,8 +515,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +557,36 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -474,74 +614,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -848,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -865,15 +1046,25 @@
     <col min="7" max="17" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -886,13 +1077,25 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+    <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>14620</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
@@ -905,502 +1108,498 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:17" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="46">
+        <v>1</v>
+      </c>
+      <c r="E3" s="48">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+    </row>
+    <row r="4" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="46">
+        <v>9</v>
+      </c>
+      <c r="E4" s="48">
+        <v>50400</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+    </row>
+    <row r="5" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="46">
+        <v>9</v>
+      </c>
+      <c r="E5" s="48">
+        <v>21600</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+    </row>
+    <row r="6" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="46">
+        <v>3</v>
+      </c>
+      <c r="E6" s="48">
+        <v>4600</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+    </row>
+    <row r="7" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="46">
+        <v>1</v>
+      </c>
+      <c r="E7" s="48">
+        <v>6150</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="46">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E8" s="48">
+        <v>738</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+    </row>
+    <row r="9" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="56">
+        <v>100300</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="55">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="E10" s="56">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="55">
+        <v>1</v>
+      </c>
+      <c r="E11" s="56">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+    </row>
+    <row r="12" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
+      <c r="E12" s="56">
+        <v>5400</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+    </row>
+    <row r="13" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>14620</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6">
-        <v>50400</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6">
-        <v>21600</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="B13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="50">
+        <v>1</v>
+      </c>
+      <c r="E13" s="56">
+        <v>750</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+    </row>
+    <row r="14" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="50">
+        <v>5</v>
+      </c>
+      <c r="E14" s="58">
+        <v>99500</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4600</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>6150</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>738</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="10">
-        <v>100300</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+    </row>
+    <row r="15" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="50">
         <v>5</v>
       </c>
-      <c r="E12" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="E15" s="58">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+    </row>
+    <row r="16" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="50">
+        <v>5</v>
+      </c>
+      <c r="E16" s="58">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+    </row>
+    <row r="17" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="50">
+        <v>5</v>
+      </c>
+      <c r="E17" s="56">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+    </row>
+    <row r="18" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="50">
+        <v>1</v>
+      </c>
+      <c r="E18" s="56">
+        <v>5300</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+    </row>
+    <row r="19" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="50">
+        <v>1</v>
+      </c>
+      <c r="E19" s="56">
+        <v>1190</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11">
         <v>10000</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>5400</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>750</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="8">
-        <v>5</v>
-      </c>
-      <c r="E16" s="16">
-        <v>99500</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="8">
-        <v>5</v>
-      </c>
-      <c r="E17" s="16">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1500</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="8">
-        <v>5</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1500</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>5300</v>
-      </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1413,21 +1612,21 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>52</v>
+    <row r="21" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1190</v>
+        <v>54</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>12000</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1444,19 +1643,19 @@
     </row>
     <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="13">
-        <v>10000</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>5275</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1471,50 +1670,45 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13">
-        <v>12000</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+    <row r="23" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="50">
+        <v>1</v>
+      </c>
+      <c r="E23" s="50">
+        <v>300</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="13">
-        <v>5275</v>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="10">
+        <f>SUM(E2:E23)</f>
+        <v>358623</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1530,21 +1724,11 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>300</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1558,80 +1742,528 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="10">
-        <f>SUM(E4:E25)</f>
-        <v>358623</v>
-      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
-    <hyperlink ref="F10" r:id="rId4"/>
-    <hyperlink ref="F15" r:id="rId5"/>
-    <hyperlink ref="F17" r:id="rId6"/>
-    <hyperlink ref="F19" r:id="rId7"/>
-    <hyperlink ref="F16" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="F13" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId6"/>
+    <hyperlink ref="F17" r:id="rId7"/>
+    <hyperlink ref="F14" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="44">
+        <v>5</v>
+      </c>
+      <c r="D3" s="38">
+        <v>19900</v>
+      </c>
+      <c r="E3" s="45">
+        <f>D3*C3</f>
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="44">
+        <v>5</v>
+      </c>
+      <c r="D4" s="38">
+        <v>398</v>
+      </c>
+      <c r="E4" s="45">
+        <f>D4*C4</f>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="44">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38">
+        <v>490</v>
+      </c>
+      <c r="E5" s="45">
+        <f>D5*C5</f>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="44">
+        <v>5</v>
+      </c>
+      <c r="D6" s="38">
+        <v>450</v>
+      </c>
+      <c r="E6" s="45">
+        <f>D6*C6</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="44">
+        <v>9</v>
+      </c>
+      <c r="D7" s="38">
+        <v>5600</v>
+      </c>
+      <c r="E7" s="45">
+        <f>D7*C7</f>
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="44">
+        <v>9</v>
+      </c>
+      <c r="D8" s="38">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="45">
+        <f>D8*C8</f>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="44">
+        <v>3</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1530</v>
+      </c>
+      <c r="E9" s="45">
+        <f>D9*C9</f>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <v>6150</v>
+      </c>
+      <c r="E10" s="45">
+        <f>D10*C10</f>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="44">
+        <v>2</v>
+      </c>
+      <c r="D11" s="38">
+        <v>439</v>
+      </c>
+      <c r="E11" s="45">
+        <f>D11*C11</f>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="44">
+        <v>1</v>
+      </c>
+      <c r="D12" s="38">
+        <v>100300</v>
+      </c>
+      <c r="E12" s="53">
+        <f>D12*C12</f>
+        <v>100300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="44">
+        <v>5</v>
+      </c>
+      <c r="D13" s="38">
+        <v>399</v>
+      </c>
+      <c r="E13" s="53">
+        <f>D13*C13</f>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1</v>
+      </c>
+      <c r="D14" s="38">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="53">
+        <f>D14*C14</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="38">
+        <v>5400</v>
+      </c>
+      <c r="E15" s="53">
+        <f>D15*C15</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="44">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
+        <v>750</v>
+      </c>
+      <c r="E16" s="53">
+        <f>D16*C16</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="D17" s="38">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="53">
+        <f>D17*C17</f>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1190</v>
+      </c>
+      <c r="E18" s="53">
+        <f>D18*C18</f>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67">
+        <f>SUM(E3:E18)</f>
+        <v>314743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="44">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <v>5500</v>
+      </c>
+      <c r="E21" s="53">
+        <f>D21*C21</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="44">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38">
+        <v>14620</v>
+      </c>
+      <c r="E22" s="53">
+        <f>D22*C22</f>
+        <v>14620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="44">
+        <v>5</v>
+      </c>
+      <c r="D23" s="38">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="53">
+        <f t="shared" ref="E23:E24" si="0">D23*C23</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="44">
+        <v>1</v>
+      </c>
+      <c r="D24" s="38">
+        <v>5275</v>
+      </c>
+      <c r="E24" s="53">
+        <f t="shared" si="0"/>
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67">
+        <f>SUM(E21:E24)</f>
+        <v>35395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="44">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38">
+        <v>300</v>
+      </c>
+      <c r="E27" s="53">
+        <f>D27*C27</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67">
+        <f>SUM(E27:E28)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="70">
+        <f>SUM(E29,E25,E19)</f>
+        <v>350438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
@@ -1656,22 +2288,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1699,318 +2331,318 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:15" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="23" t="e">
+      <c r="D3" s="15" t="e">
         <f>C3*G2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="17">
         <v>10000</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="D4" s="15">
         <v>5</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="17">
         <f>F4*5</f>
         <v>31085</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="18">
         <v>6217</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-    </row>
-    <row r="5" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
         <v>4500</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-    </row>
-    <row r="6" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
         <v>4500</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-    </row>
-    <row r="7" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
         <f>F7+G7</f>
         <v>17545</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="20">
         <v>15125</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="18">
         <f>F7*0.16</f>
         <v>2420</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-    </row>
-    <row r="8" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
         <f>F8+G8</f>
         <v>17545</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="22">
         <v>15125</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="18">
         <f>F7*0.16</f>
         <v>2420</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-    </row>
-    <row r="9" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="31">
-        <v>1</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
         <f>F9+H9</f>
         <v>18425</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="19">
         <v>18425</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="19">
         <f>F9*0.3</f>
         <v>5527.5</v>
       </c>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="31" t="s">
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>14668</v>
+      </c>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="32">
-        <v>14668</v>
-      </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="31">
-        <v>1</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
         <v>12900</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1944</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23">
-        <v>1</v>
-      </c>
-      <c r="E12" s="34">
-        <v>1944</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="B13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="C13" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="23">
-        <v>1</v>
-      </c>
-      <c r="E13" s="34">
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
         <v>350</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
         <v>2000</v>
       </c>
       <c r="F14" s="3"/>
@@ -2024,47 +2656,47 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:15" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <v>848</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="35">
-        <v>1</v>
-      </c>
-      <c r="E15" s="37">
-        <v>848</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-    </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="E16" s="14">
         <v>500</v>
       </c>
       <c r="F16" s="3"/>
@@ -2078,70 +2710,70 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="1:15" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>900</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="35">
-        <v>1</v>
-      </c>
-      <c r="E17" s="37">
-        <v>900</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-    </row>
-    <row r="18" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35">
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27">
         <v>300</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="18">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
         <v>6000</v>
       </c>
       <c r="F19" s="3"/>
@@ -2156,17 +2788,17 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18">
-        <v>1</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="A20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
         <v>30000</v>
       </c>
       <c r="F20" s="3"/>
@@ -2181,19 +2813,19 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="20">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="14">
         <f>SUM(E3:E20)</f>
         <v>174010</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2249,7 +2881,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
@@ -2321,7 +2953,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2331,7 +2963,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
+++ b/SAP - NEGOCIO/Temporal/Presupuesto/Presupuesto pickupmeal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\SAPgit\sap-tfi-documentation\SAP - NEGOCIO\Temporal\Presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\SAP-TFI 2015\sap-tfi-documentation\SAP - NEGOCIO\Temporal\Presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="142">
   <si>
     <t>Recursos</t>
   </si>
@@ -444,19 +444,26 @@
   </si>
   <si>
     <t>** Capital adicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital Inicial </t>
+  </si>
+  <si>
+    <t>Total Inversion Inicial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
+  <numFmts count="7">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\$#,##0"/>
     <numFmt numFmtId="166" formatCode="[$$-2C0A]#,##0.00;[Red]\([$$-2C0A]#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="[$$-2C0A]\ #,##0.00"/>
-    <numFmt numFmtId="172" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -540,7 +547,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,6 +596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -617,9 +630,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -650,13 +663,13 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -666,22 +679,10 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -691,7 +692,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -703,22 +703,40 @@
     <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1108,480 +1126,480 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:17" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="46">
-        <v>1</v>
-      </c>
-      <c r="E3" s="48">
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="38">
         <v>5000</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-    </row>
-    <row r="4" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+    </row>
+    <row r="4" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="36">
         <v>9</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="38">
         <v>50400</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-    </row>
-    <row r="5" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="36">
         <v>9</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="38">
         <v>21600</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-    </row>
-    <row r="6" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="36">
         <v>3</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="38">
         <v>4600</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-    </row>
-    <row r="7" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="46">
-        <v>1</v>
-      </c>
-      <c r="E7" s="48">
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
         <v>6150</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-    </row>
-    <row r="8" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="F7" s="42"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="36">
         <v>2</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="38">
         <v>738</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-    </row>
-    <row r="9" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+    </row>
+    <row r="9" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="45">
         <v>100300</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-    </row>
-    <row r="10" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+    </row>
+    <row r="10" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="44">
         <v>5</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="45">
         <v>1000</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+    </row>
+    <row r="11" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="55">
-        <v>1</v>
-      </c>
-      <c r="E11" s="56">
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="45">
         <v>10000</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-    </row>
-    <row r="12" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="50">
-        <v>1</v>
-      </c>
-      <c r="E12" s="56">
+      <c r="D12" s="40">
+        <v>1</v>
+      </c>
+      <c r="E12" s="45">
         <v>5400</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-    </row>
-    <row r="13" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="50">
-        <v>1</v>
-      </c>
-      <c r="E13" s="56">
+      <c r="D13" s="40">
+        <v>1</v>
+      </c>
+      <c r="E13" s="45">
         <v>750</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-    </row>
-    <row r="14" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="40">
         <v>5</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="47">
         <v>99500</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-    </row>
-    <row r="15" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+    </row>
+    <row r="15" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="40">
         <v>5</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="47">
         <v>1500</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-    </row>
-    <row r="16" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+    </row>
+    <row r="16" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="40">
         <v>5</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="47">
         <v>1500</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-    </row>
-    <row r="17" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+    </row>
+    <row r="17" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="40">
         <v>5</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="45">
         <v>1500</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-    </row>
-    <row r="18" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+    </row>
+    <row r="18" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="50">
-        <v>1</v>
-      </c>
-      <c r="E18" s="56">
+      <c r="D18" s="40">
+        <v>1</v>
+      </c>
+      <c r="E18" s="45">
         <v>5300</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-    </row>
-    <row r="19" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="F18" s="46"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+    </row>
+    <row r="19" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="50">
-        <v>1</v>
-      </c>
-      <c r="E19" s="56">
+      <c r="D19" s="40">
+        <v>1</v>
+      </c>
+      <c r="E19" s="45">
         <v>1190</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -1670,34 +1688,34 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:17" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="50">
-        <v>1</v>
-      </c>
-      <c r="E23" s="50">
+      <c r="D23" s="40">
+        <v>1</v>
+      </c>
+      <c r="E23" s="40">
         <v>300</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
@@ -1771,489 +1789,515 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>112</v>
       </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="56">
         <v>5</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="57">
         <v>19900</v>
       </c>
-      <c r="E3" s="45">
-        <f>D3*C3</f>
+      <c r="E3" s="58">
+        <f t="shared" ref="E3:E18" si="0">D3*C3</f>
         <v>99500</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="56">
         <v>5</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="57">
         <v>398</v>
       </c>
-      <c r="E4" s="45">
-        <f>D4*C4</f>
+      <c r="E4" s="58">
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="56">
         <v>5</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="57">
         <v>490</v>
       </c>
-      <c r="E5" s="45">
-        <f>D5*C5</f>
+      <c r="E5" s="58">
+        <f t="shared" si="0"/>
         <v>2450</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="56">
         <v>5</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="57">
         <v>450</v>
       </c>
-      <c r="E6" s="45">
-        <f>D6*C6</f>
+      <c r="E6" s="58">
+        <f t="shared" si="0"/>
         <v>2250</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="56">
         <v>9</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="57">
         <v>5600</v>
       </c>
-      <c r="E7" s="45">
-        <f>D7*C7</f>
+      <c r="E7" s="58">
+        <f t="shared" si="0"/>
         <v>50400</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="56">
         <v>9</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="57">
         <v>2400</v>
       </c>
-      <c r="E8" s="45">
-        <f>D8*C8</f>
+      <c r="E8" s="58">
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="56">
         <v>3</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="57">
         <v>1530</v>
       </c>
-      <c r="E9" s="45">
-        <f>D9*C9</f>
+      <c r="E9" s="58">
+        <f t="shared" si="0"/>
         <v>4590</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="44">
-        <v>1</v>
-      </c>
-      <c r="D10" s="38">
+      <c r="C10" s="56">
+        <v>1</v>
+      </c>
+      <c r="D10" s="57">
         <v>6150</v>
       </c>
-      <c r="E10" s="45">
-        <f>D10*C10</f>
+      <c r="E10" s="58">
+        <f t="shared" si="0"/>
         <v>6150</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="56">
         <v>2</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="57">
         <v>439</v>
       </c>
-      <c r="E11" s="45">
-        <f>D11*C11</f>
+      <c r="E11" s="58">
+        <f t="shared" si="0"/>
         <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="44">
-        <v>1</v>
-      </c>
-      <c r="D12" s="38">
+      <c r="C12" s="56">
+        <v>1</v>
+      </c>
+      <c r="D12" s="57">
         <v>100300</v>
       </c>
-      <c r="E12" s="53">
-        <f>D12*C12</f>
+      <c r="E12" s="59">
+        <f t="shared" si="0"/>
         <v>100300</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="56">
         <v>5</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="57">
         <v>399</v>
       </c>
-      <c r="E13" s="53">
-        <f>D13*C13</f>
+      <c r="E13" s="59">
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="44">
-        <v>1</v>
-      </c>
-      <c r="D14" s="38">
+      <c r="C14" s="56">
+        <v>1</v>
+      </c>
+      <c r="D14" s="57">
         <v>10000</v>
       </c>
-      <c r="E14" s="53">
-        <f>D14*C14</f>
+      <c r="E14" s="59">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="44">
-        <v>1</v>
-      </c>
-      <c r="D15" s="38">
+      <c r="C15" s="56">
+        <v>1</v>
+      </c>
+      <c r="D15" s="57">
         <v>5400</v>
       </c>
-      <c r="E15" s="53">
-        <f>D15*C15</f>
+      <c r="E15" s="59">
+        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="44">
-        <v>1</v>
-      </c>
-      <c r="D16" s="38">
+      <c r="C16" s="56">
+        <v>1</v>
+      </c>
+      <c r="D16" s="57">
         <v>750</v>
       </c>
-      <c r="E16" s="53">
-        <f>D16*C16</f>
+      <c r="E16" s="59">
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="44">
-        <v>1</v>
-      </c>
-      <c r="D17" s="38">
-        <v>5300</v>
-      </c>
-      <c r="E17" s="53">
-        <f>D17*C17</f>
-        <v>5300</v>
+      <c r="C17" s="56">
+        <v>1</v>
+      </c>
+      <c r="D17" s="57">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="59">
+        <f t="shared" si="0"/>
+        <v>6500</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="44">
-        <v>1</v>
-      </c>
-      <c r="D18" s="38">
+      <c r="C18" s="56">
+        <v>1</v>
+      </c>
+      <c r="D18" s="57">
         <v>1190</v>
       </c>
-      <c r="E18" s="53">
-        <f>D18*C18</f>
+      <c r="E18" s="59">
+        <f t="shared" si="0"/>
         <v>1190</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+    <row r="19" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67">
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64">
         <f>SUM(E3:E18)</f>
-        <v>314743</v>
+        <v>315943</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="61"/>
-    </row>
-    <row r="21" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+    </row>
+    <row r="21" spans="1:5" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="44">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38">
-        <v>5500</v>
-      </c>
-      <c r="E21" s="53">
+      <c r="C21" s="56">
+        <v>1</v>
+      </c>
+      <c r="D21" s="57">
+        <v>8500</v>
+      </c>
+      <c r="E21" s="59">
         <f>D21*C21</f>
-        <v>5500</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="44">
-        <v>1</v>
-      </c>
-      <c r="D22" s="38">
+      <c r="C22" s="56">
+        <v>1</v>
+      </c>
+      <c r="D22" s="57">
         <v>14620</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="59">
         <f>D22*C22</f>
         <v>14620</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="56">
         <v>5</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="57">
         <v>2000</v>
       </c>
-      <c r="E23" s="53">
-        <f t="shared" ref="E23:E24" si="0">D23*C23</f>
-        <v>10000</v>
+      <c r="E23" s="59">
+        <v>16000</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="44">
-        <v>1</v>
-      </c>
-      <c r="D24" s="38">
+      <c r="C24" s="56">
+        <v>1</v>
+      </c>
+      <c r="D24" s="57">
         <v>5275</v>
       </c>
-      <c r="E24" s="53">
-        <f t="shared" si="0"/>
+      <c r="E24" s="59">
+        <f t="shared" ref="E23:E24" si="1">D24*C24</f>
         <v>5275</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+    <row r="25" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67">
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64">
         <f>SUM(E21:E24)</f>
-        <v>35395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="1:5" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="44">
-        <v>1</v>
-      </c>
-      <c r="D27" s="38">
-        <v>300</v>
-      </c>
-      <c r="E27" s="53">
+      <c r="C27" s="56">
+        <v>1</v>
+      </c>
+      <c r="D27" s="57">
+        <v>500</v>
+      </c>
+      <c r="E27" s="59">
         <f>D27*C27</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="53"/>
-    </row>
-    <row r="29" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67">
-        <f>SUM(E27:E28)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64">
+        <f>SUM(E27:E27)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="70">
-        <f>SUM(E29,E25,E19)</f>
-        <v>350438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71">
+        <f>SUM(E28,E25,E19)</f>
+        <v>360838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75">
+        <f>SUM(E29:E30)</f>
+        <v>500838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2268,7 +2312,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
